--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H2">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I2">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J2">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N2">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P2">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q2">
-        <v>19.74184580283233</v>
+        <v>9.517090070425777</v>
       </c>
       <c r="R2">
-        <v>177.676612225491</v>
+        <v>85.65381063383201</v>
       </c>
       <c r="S2">
-        <v>0.1342106970915875</v>
+        <v>0.03240665077771655</v>
       </c>
       <c r="T2">
-        <v>0.1342106970915876</v>
+        <v>0.03240665077771657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H3">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I3">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J3">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>66.035403</v>
       </c>
       <c r="O3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P3">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q3">
-        <v>55.58318000508701</v>
+        <v>25.655164952452</v>
       </c>
       <c r="R3">
-        <v>500.2486200457831</v>
+        <v>230.896484572068</v>
       </c>
       <c r="S3">
-        <v>0.3778703070398646</v>
+        <v>0.08735842207087885</v>
       </c>
       <c r="T3">
-        <v>0.3778703070398647</v>
+        <v>0.08735842207087888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H4">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I4">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J4">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N4">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P4">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q4">
-        <v>21.60315256317222</v>
+        <v>15.75259706580622</v>
       </c>
       <c r="R4">
-        <v>194.42837306855</v>
+        <v>141.773373592256</v>
       </c>
       <c r="S4">
-        <v>0.1468643911940235</v>
+        <v>0.05363918048227807</v>
       </c>
       <c r="T4">
-        <v>0.1468643911940236</v>
+        <v>0.05363918048227808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H5">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I5">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J5">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N5">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O5">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P5">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q5">
-        <v>11.60201127489656</v>
+        <v>4.540380531642667</v>
       </c>
       <c r="R5">
-        <v>104.418101474069</v>
+        <v>40.863424784784</v>
       </c>
       <c r="S5">
-        <v>0.07887378092300405</v>
+        <v>0.01546045326860127</v>
       </c>
       <c r="T5">
-        <v>0.07887378092300409</v>
+        <v>0.01546045326860128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J6">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N6">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P6">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q6">
-        <v>2.923770558126333</v>
+        <v>3.053713514510445</v>
       </c>
       <c r="R6">
-        <v>26.313935023137</v>
+        <v>27.48342163059401</v>
       </c>
       <c r="S6">
-        <v>0.0198766259579283</v>
+        <v>0.01039820225590301</v>
       </c>
       <c r="T6">
-        <v>0.01987662595792831</v>
+        <v>0.01039820225590301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J7">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>66.035403</v>
       </c>
       <c r="O7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P7">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q7">
         <v>8.231877953509002</v>
@@ -883,10 +883,10 @@
         <v>74.08690158158102</v>
       </c>
       <c r="S7">
-        <v>0.05596265362151744</v>
+        <v>0.02803037400193645</v>
       </c>
       <c r="T7">
-        <v>0.05596265362151746</v>
+        <v>0.02803037400193645</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J8">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N8">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P8">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q8">
-        <v>3.199430390538889</v>
+        <v>5.054477596883556</v>
       </c>
       <c r="R8">
-        <v>28.79487351485</v>
+        <v>45.49029837195201</v>
       </c>
       <c r="S8">
-        <v>0.02175064010218484</v>
+        <v>0.01721100558404922</v>
       </c>
       <c r="T8">
-        <v>0.02175064010218485</v>
+        <v>0.01721100558404922</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.121927</v>
       </c>
       <c r="I9">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J9">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.594576333333333</v>
+        <v>3.895588</v>
       </c>
       <c r="N9">
-        <v>13.783729</v>
+        <v>11.686764</v>
       </c>
       <c r="O9">
-        <v>0.1069012346955337</v>
+        <v>0.08185993850819488</v>
       </c>
       <c r="P9">
-        <v>0.1069012346955337</v>
+        <v>0.0818599385081949</v>
       </c>
       <c r="Q9">
-        <v>1.718259747309222</v>
+        <v>1.456855119358667</v>
       </c>
       <c r="R9">
-        <v>15.464337725783</v>
+        <v>13.111696074228</v>
       </c>
       <c r="S9">
-        <v>0.01168121971845716</v>
+        <v>0.004960738496475396</v>
       </c>
       <c r="T9">
-        <v>0.01168121971845716</v>
+        <v>0.004960738496475397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H10">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.818077</v>
+        <v>8.165540666666667</v>
       </c>
       <c r="N10">
-        <v>23.454231</v>
+        <v>24.496622</v>
       </c>
       <c r="O10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="P10">
-        <v>0.1819018824829088</v>
+        <v>0.1715865889461355</v>
       </c>
       <c r="Q10">
-        <v>4.091408176153332</v>
+        <v>37.76017916770867</v>
       </c>
       <c r="R10">
-        <v>36.82267358538</v>
+        <v>339.841612509378</v>
       </c>
       <c r="S10">
-        <v>0.02781455943339297</v>
+        <v>0.1285772153606609</v>
       </c>
       <c r="T10">
-        <v>0.02781455943339298</v>
+        <v>0.1285772153606609</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H11">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>66.035403</v>
       </c>
       <c r="O11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="P11">
-        <v>0.5121448712693895</v>
+        <v>0.4625449807101323</v>
       </c>
       <c r="Q11">
-        <v>11.51936244466</v>
+        <v>101.789897753733</v>
       </c>
       <c r="R11">
-        <v>103.67426200194</v>
+        <v>916.1090797835971</v>
       </c>
       <c r="S11">
-        <v>0.07831191060800742</v>
+        <v>0.3466048597622576</v>
       </c>
       <c r="T11">
-        <v>0.07831191060800743</v>
+        <v>0.3466048597622576</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H12">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.555183333333334</v>
+        <v>13.51552533333333</v>
       </c>
       <c r="N12">
-        <v>25.66555</v>
+        <v>40.546576</v>
       </c>
       <c r="O12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355372</v>
       </c>
       <c r="P12">
-        <v>0.1990520115521681</v>
+        <v>0.2840084918355373</v>
       </c>
       <c r="Q12">
-        <v>4.477155576555555</v>
+        <v>62.50028981126934</v>
       </c>
       <c r="R12">
-        <v>40.294400189</v>
+        <v>562.5026083014241</v>
       </c>
       <c r="S12">
-        <v>0.03043698025595974</v>
+        <v>0.2128197852948625</v>
       </c>
       <c r="T12">
-        <v>0.03043698025595975</v>
+        <v>0.2128197852948625</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.624333</v>
+      </c>
+      <c r="H13">
+        <v>13.872999</v>
+      </c>
+      <c r="I13">
+        <v>0.7493430352008683</v>
+      </c>
+      <c r="J13">
+        <v>0.7493430352008682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.895588</v>
+      </c>
+      <c r="N13">
+        <v>11.686764</v>
+      </c>
+      <c r="O13">
+        <v>0.08185993850819488</v>
+      </c>
+      <c r="P13">
+        <v>0.0818599385081949</v>
+      </c>
+      <c r="Q13">
+        <v>18.014496142804</v>
+      </c>
+      <c r="R13">
+        <v>162.130465285236</v>
+      </c>
+      <c r="S13">
+        <v>0.06134117478308719</v>
+      </c>
+      <c r="T13">
+        <v>0.0613411747830872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5233266666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.56998</v>
-      </c>
-      <c r="I13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="J13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.594576333333333</v>
-      </c>
-      <c r="N13">
-        <v>13.783729</v>
-      </c>
-      <c r="O13">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="P13">
-        <v>0.1069012346955337</v>
-      </c>
-      <c r="Q13">
-        <v>2.404464317268888</v>
-      </c>
-      <c r="R13">
-        <v>21.64017885542</v>
-      </c>
-      <c r="S13">
-        <v>0.01634623405407247</v>
-      </c>
-      <c r="T13">
-        <v>0.01634623405407248</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.165540666666667</v>
+      </c>
+      <c r="N14">
+        <v>24.496622</v>
+      </c>
+      <c r="O14">
+        <v>0.1715865889461355</v>
+      </c>
+      <c r="P14">
+        <v>0.1715865889461355</v>
+      </c>
+      <c r="Q14">
+        <v>0.06006299529711111</v>
+      </c>
+      <c r="R14">
+        <v>0.5405669576740001</v>
+      </c>
+      <c r="S14">
+        <v>0.0002045205518549885</v>
+      </c>
+      <c r="T14">
+        <v>0.0002045205518549886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.011801</v>
+      </c>
+      <c r="N15">
+        <v>66.035403</v>
+      </c>
+      <c r="O15">
+        <v>0.4625449807101323</v>
+      </c>
+      <c r="P15">
+        <v>0.4625449807101323</v>
+      </c>
+      <c r="Q15">
+        <v>0.161911470889</v>
+      </c>
+      <c r="R15">
+        <v>1.457203238001</v>
+      </c>
+      <c r="S15">
+        <v>0.000551324875059368</v>
+      </c>
+      <c r="T15">
+        <v>0.0005513248750593681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.51552533333333</v>
+      </c>
+      <c r="N16">
+        <v>40.546576</v>
+      </c>
+      <c r="O16">
+        <v>0.2840084918355372</v>
+      </c>
+      <c r="P16">
+        <v>0.2840084918355373</v>
+      </c>
+      <c r="Q16">
+        <v>0.0994156991768889</v>
+      </c>
+      <c r="R16">
+        <v>0.8947412925920001</v>
+      </c>
+      <c r="S16">
+        <v>0.0003385204743474522</v>
+      </c>
+      <c r="T16">
+        <v>0.0003385204743474522</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.022067</v>
+      </c>
+      <c r="I17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.895588</v>
+      </c>
+      <c r="N17">
+        <v>11.686764</v>
+      </c>
+      <c r="O17">
+        <v>0.08185993850819488</v>
+      </c>
+      <c r="P17">
+        <v>0.0818599385081949</v>
+      </c>
+      <c r="Q17">
+        <v>0.02865464679866667</v>
+      </c>
+      <c r="R17">
+        <v>0.257891821188</v>
+      </c>
+      <c r="S17">
+        <v>9.757196003102033E-05</v>
+      </c>
+      <c r="T17">
+        <v>9.757196003102034E-05</v>
       </c>
     </row>
   </sheetData>
